--- a/заказы/статистика филиалы/2024/01,24/10,01,24 КИ/дв 10,01,24 бррсч.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/10,01,24 КИ/дв 10,01,24 бррсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\10,01,24 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\10,01,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E4543F-C28D-4AFF-9F33-09A1199C31CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0003CE44-2D9E-4B6A-AF1A-98C3C246A27B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="149">
   <si>
     <t>Период: 03.01.2024 - 10.01.2024</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>то же что и 223 (задвоенная СКЮ)</t>
+  </si>
+  <si>
+    <t>12,01,</t>
   </si>
 </sst>
 </file>
@@ -496,6 +499,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -7498,8 +7503,8 @@
   <dimension ref="A1:W109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <pane ySplit="5" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7621,7 +7626,9 @@
       <c r="M4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="O4" s="14" t="s">
         <v>122</v>
       </c>
@@ -7679,7 +7686,7 @@
       </c>
       <c r="N5" s="17">
         <f t="shared" si="1"/>
-        <v>11371.185599999997</v>
+        <v>11361.185599999997</v>
       </c>
       <c r="O5" s="19">
         <f t="shared" si="1"/>
@@ -13875,13 +13882,11 @@
         <f t="shared" si="12"/>
         <v>0.26860000000000001</v>
       </c>
-      <c r="N98" s="36">
-        <v>10</v>
-      </c>
+      <c r="N98" s="26"/>
       <c r="O98" s="26"/>
       <c r="Q98" s="2">
         <f t="shared" si="13"/>
-        <v>37.230081906180196</v>
+        <v>0</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" si="14"/>
